--- a/data/evaluation_data.xlsx
+++ b/data/evaluation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaychan/GitHub/gammon_nlp_project_demo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEAD46E-1332-8441-8AC0-E9CA4B10D522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC959A60-35F9-6946-94AD-814B18AB79F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1916,7 +1916,7 @@
   <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/evaluation_data.xlsx
+++ b/data/evaluation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaychan/GitHub/gammon_nlp_project_demo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC959A60-35F9-6946-94AD-814B18AB79F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019C4D9-363E-F745-AB59-8CE7DA13E4E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="505">
   <si>
     <t>S/N</t>
   </si>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>Classification</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
   </si>
   <si>
     <t>Ask to Get it install mid rail then allow them to proceed work .</t>
@@ -1913,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1927,7 +1918,7 @@
     <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1940,218 +1931,209 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>653</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>994</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>627</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>955</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>380</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>423</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>465</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>407</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2159,13 +2141,13 @@
         <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2173,13 +2155,13 @@
         <v>783</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2187,13 +2169,13 @@
         <v>927</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2201,13 +2183,13 @@
         <v>498</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2215,10 +2197,10 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2226,13 +2208,13 @@
         <v>747</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2240,13 +2222,13 @@
         <v>915</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2254,13 +2236,13 @@
         <v>877</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2268,13 +2250,13 @@
         <v>719</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2282,13 +2264,13 @@
         <v>382</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2296,13 +2278,13 @@
         <v>236</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2310,13 +2292,13 @@
         <v>451</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2324,13 +2306,13 @@
         <v>511</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2338,13 +2320,13 @@
         <v>408</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2352,13 +2334,13 @@
         <v>509</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2366,13 +2348,13 @@
         <v>784</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2380,13 +2362,13 @@
         <v>146</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2394,13 +2376,13 @@
         <v>531</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2408,13 +2390,13 @@
         <v>554</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2422,13 +2404,13 @@
         <v>921</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2436,10 +2418,10 @@
         <v>608</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2447,13 +2429,13 @@
         <v>624</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,13 +2443,13 @@
         <v>637</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,13 +2457,13 @@
         <v>328</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,10 +2471,10 @@
         <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2500,13 +2482,13 @@
         <v>526</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2514,13 +2496,13 @@
         <v>399</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2528,13 +2510,13 @@
         <v>672</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2542,13 +2524,13 @@
         <v>989</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2556,13 +2538,13 @@
         <v>835</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2570,13 +2552,13 @@
         <v>216</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,13 +2566,13 @@
         <v>969</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2598,13 +2580,13 @@
         <v>696</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2612,13 +2594,13 @@
         <v>489</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2626,13 +2608,13 @@
         <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2640,13 +2622,13 @@
         <v>374</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2654,13 +2636,13 @@
         <v>411</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2668,13 +2650,13 @@
         <v>419</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2682,13 +2664,13 @@
         <v>305</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2696,13 +2678,13 @@
         <v>471</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2710,10 +2692,10 @@
         <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2721,13 +2703,13 @@
         <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2735,13 +2717,13 @@
         <v>384</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2749,10 +2731,10 @@
         <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,13 +2742,13 @@
         <v>386</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,13 +2756,13 @@
         <v>901</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2788,13 +2770,13 @@
         <v>359</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,13 +2784,13 @@
         <v>693</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2816,10 +2798,10 @@
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2827,13 +2809,13 @@
         <v>676</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2841,13 +2823,13 @@
         <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2855,13 +2837,13 @@
         <v>588</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2869,13 +2851,13 @@
         <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2883,13 +2865,13 @@
         <v>883</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2897,10 +2879,10 @@
         <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2908,13 +2890,13 @@
         <v>881</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2922,10 +2904,10 @@
         <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2933,13 +2915,13 @@
         <v>731</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2947,13 +2929,13 @@
         <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2961,13 +2943,13 @@
         <v>1003</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2975,13 +2957,13 @@
         <v>222</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2989,13 +2971,13 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3003,13 +2985,13 @@
         <v>924</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3017,13 +2999,13 @@
         <v>956</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3031,13 +3013,13 @@
         <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3045,13 +3027,13 @@
         <v>256</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3059,13 +3041,13 @@
         <v>262</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3073,13 +3055,13 @@
         <v>414</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3087,13 +3069,13 @@
         <v>186</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D85" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3101,13 +3083,13 @@
         <v>765</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3115,13 +3097,13 @@
         <v>825</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3129,13 +3111,13 @@
         <v>585</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3143,13 +3125,13 @@
         <v>252</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3157,13 +3139,13 @@
         <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D90" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3171,13 +3153,13 @@
         <v>533</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3185,13 +3167,13 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3199,13 +3181,13 @@
         <v>968</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3213,13 +3195,13 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3227,13 +3209,13 @@
         <v>830</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3241,13 +3223,13 @@
         <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3255,13 +3237,13 @@
         <v>314</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D97" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3269,13 +3251,13 @@
         <v>342</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3283,13 +3265,13 @@
         <v>306</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,13 +3279,13 @@
         <v>720</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3311,13 +3293,13 @@
         <v>566</v>
       </c>
       <c r="B101" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3325,13 +3307,13 @@
         <v>475</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D102" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3339,13 +3321,13 @@
         <v>1004</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C103" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D103" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3353,13 +3335,13 @@
         <v>497</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C104" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D104" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3367,13 +3349,13 @@
         <v>1000</v>
       </c>
       <c r="B105" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C105" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D105" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3381,13 +3363,13 @@
         <v>919</v>
       </c>
       <c r="B106" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C106" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3395,13 +3377,13 @@
         <v>914</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D107" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3409,13 +3391,13 @@
         <v>598</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3423,13 +3405,13 @@
         <v>174</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C109" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3437,13 +3419,13 @@
         <v>490</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3451,10 +3433,10 @@
         <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D111" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3462,10 +3444,10 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3473,13 +3455,13 @@
         <v>229</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C113" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3487,13 +3469,13 @@
         <v>933</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D114" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3501,13 +3483,13 @@
         <v>316</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D115" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3515,13 +3497,13 @@
         <v>949</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C116" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3529,10 +3511,10 @@
         <v>182</v>
       </c>
       <c r="C117" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3540,13 +3522,13 @@
         <v>219</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D118" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3554,10 +3536,10 @@
         <v>109</v>
       </c>
       <c r="C119" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D119" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3565,13 +3547,13 @@
         <v>234</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D120" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3579,13 +3561,13 @@
         <v>706</v>
       </c>
       <c r="B121" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C121" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3593,13 +3575,13 @@
         <v>912</v>
       </c>
       <c r="B122" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D122" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3607,13 +3589,13 @@
         <v>574</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3621,13 +3603,13 @@
         <v>202</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D124" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3635,13 +3617,13 @@
         <v>790</v>
       </c>
       <c r="B125" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D125" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3649,13 +3631,13 @@
         <v>362</v>
       </c>
       <c r="B126" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C126" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D126" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3663,13 +3645,13 @@
         <v>843</v>
       </c>
       <c r="B127" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C127" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D127" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3677,13 +3659,13 @@
         <v>727</v>
       </c>
       <c r="B128" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C128" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D128" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3691,13 +3673,13 @@
         <v>978</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C129" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D129" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3705,13 +3687,13 @@
         <v>483</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C130" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3719,13 +3701,13 @@
         <v>543</v>
       </c>
       <c r="B131" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C131" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3733,13 +3715,13 @@
         <v>682</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D132" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,13 +3729,13 @@
         <v>474</v>
       </c>
       <c r="B133" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C133" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D133" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3761,13 +3743,13 @@
         <v>974</v>
       </c>
       <c r="B134" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C134" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D134" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3775,13 +3757,13 @@
         <v>347</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C135" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3789,13 +3771,13 @@
         <v>162</v>
       </c>
       <c r="B136" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D136" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3803,13 +3785,13 @@
         <v>520</v>
       </c>
       <c r="B137" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C137" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3817,13 +3799,13 @@
         <v>654</v>
       </c>
       <c r="B138" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D138" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,13 +3813,13 @@
         <v>943</v>
       </c>
       <c r="B139" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D139" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3845,13 +3827,13 @@
         <v>70</v>
       </c>
       <c r="B140" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D140" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -3859,13 +3841,13 @@
         <v>845</v>
       </c>
       <c r="B141" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D141" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3873,13 +3855,13 @@
         <v>542</v>
       </c>
       <c r="B142" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C142" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D142" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -3887,13 +3869,13 @@
         <v>990</v>
       </c>
       <c r="B143" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C143" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3901,13 +3883,13 @@
         <v>862</v>
       </c>
       <c r="B144" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C144" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D144" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -3915,13 +3897,13 @@
         <v>631</v>
       </c>
       <c r="B145" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C145" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D145" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -3929,13 +3911,13 @@
         <v>876</v>
       </c>
       <c r="B146" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C146" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -3943,13 +3925,13 @@
         <v>79</v>
       </c>
       <c r="B147" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C147" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -3957,13 +3939,13 @@
         <v>944</v>
       </c>
       <c r="B148" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C148" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D148" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -3971,13 +3953,13 @@
         <v>986</v>
       </c>
       <c r="B149" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C149" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D149" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -3985,13 +3967,13 @@
         <v>541</v>
       </c>
       <c r="B150" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D150" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -3999,13 +3981,13 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C151" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D151" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -4013,13 +3995,13 @@
         <v>296</v>
       </c>
       <c r="B152" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C152" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -4027,13 +4009,13 @@
         <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -4041,13 +4023,13 @@
         <v>820</v>
       </c>
       <c r="B154" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C154" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D154" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4055,13 +4037,13 @@
         <v>643</v>
       </c>
       <c r="B155" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C155" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D155" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4069,13 +4051,13 @@
         <v>930</v>
       </c>
       <c r="B156" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C156" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D156" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4083,10 +4065,10 @@
         <v>458</v>
       </c>
       <c r="C157" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -4094,13 +4076,13 @@
         <v>341</v>
       </c>
       <c r="B158" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C158" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D158" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -4108,13 +4090,13 @@
         <v>976</v>
       </c>
       <c r="B159" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -4122,13 +4104,13 @@
         <v>84</v>
       </c>
       <c r="B160" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C160" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D160" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -4136,13 +4118,13 @@
         <v>580</v>
       </c>
       <c r="B161" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D161" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4150,13 +4132,13 @@
         <v>213</v>
       </c>
       <c r="B162" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C162" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -4164,13 +4146,13 @@
         <v>455</v>
       </c>
       <c r="B163" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C163" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D163" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -4178,13 +4160,13 @@
         <v>110</v>
       </c>
       <c r="B164" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C164" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D164" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -4192,13 +4174,13 @@
         <v>685</v>
       </c>
       <c r="B165" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C165" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D165" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -4206,13 +4188,13 @@
         <v>867</v>
       </c>
       <c r="B166" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C166" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D166" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -4220,13 +4202,13 @@
         <v>308</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C167" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D167" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -4234,13 +4216,13 @@
         <v>391</v>
       </c>
       <c r="B168" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C168" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D168" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -4248,13 +4230,13 @@
         <v>717</v>
       </c>
       <c r="B169" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C169" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D169" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -4262,13 +4244,13 @@
         <v>326</v>
       </c>
       <c r="B170" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C170" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D170" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -4276,13 +4258,13 @@
         <v>888</v>
       </c>
       <c r="B171" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C171" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D171" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -4290,13 +4272,13 @@
         <v>339</v>
       </c>
       <c r="B172" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C172" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D172" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -4304,13 +4286,13 @@
         <v>35</v>
       </c>
       <c r="B173" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C173" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -4318,13 +4300,13 @@
         <v>655</v>
       </c>
       <c r="B174" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C174" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D174" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -4332,13 +4314,13 @@
         <v>98</v>
       </c>
       <c r="B175" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C175" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D175" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -4346,13 +4328,13 @@
         <v>702</v>
       </c>
       <c r="B176" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C176" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D176" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -4360,13 +4342,13 @@
         <v>931</v>
       </c>
       <c r="B177" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C177" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D177" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -4374,13 +4356,13 @@
         <v>454</v>
       </c>
       <c r="B178" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C178" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D178" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -4388,13 +4370,13 @@
         <v>878</v>
       </c>
       <c r="B179" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C179" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -4402,13 +4384,13 @@
         <v>982</v>
       </c>
       <c r="B180" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C180" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D180" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -4416,13 +4398,13 @@
         <v>448</v>
       </c>
       <c r="B181" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C181" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D181" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -4430,13 +4412,13 @@
         <v>633</v>
       </c>
       <c r="B182" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C182" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D182" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -4444,13 +4426,13 @@
         <v>90</v>
       </c>
       <c r="B183" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C183" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D183" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -4458,13 +4440,13 @@
         <v>704</v>
       </c>
       <c r="B184" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D184" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -4472,13 +4454,13 @@
         <v>3</v>
       </c>
       <c r="B185" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C185" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D185" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -4486,13 +4468,13 @@
         <v>664</v>
       </c>
       <c r="B186" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C186" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D186" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -4500,13 +4482,13 @@
         <v>447</v>
       </c>
       <c r="B187" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C187" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D187" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -4514,13 +4496,13 @@
         <v>353</v>
       </c>
       <c r="B188" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C188" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D188" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -4528,13 +4510,13 @@
         <v>433</v>
       </c>
       <c r="B189" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C189" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D189" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -4542,10 +4524,10 @@
         <v>86</v>
       </c>
       <c r="C190" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D190" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -4553,13 +4535,13 @@
         <v>725</v>
       </c>
       <c r="B191" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C191" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D191" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -4567,13 +4549,13 @@
         <v>137</v>
       </c>
       <c r="B192" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C192" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D192" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -4581,13 +4563,13 @@
         <v>772</v>
       </c>
       <c r="B193" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C193" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D193" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -4595,13 +4577,13 @@
         <v>680</v>
       </c>
       <c r="B194" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C194" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D194" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -4609,13 +4591,13 @@
         <v>898</v>
       </c>
       <c r="B195" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D195" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -4623,13 +4605,13 @@
         <v>838</v>
       </c>
       <c r="B196" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D196" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -4637,13 +4619,13 @@
         <v>163</v>
       </c>
       <c r="B197" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D197" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -4651,13 +4633,13 @@
         <v>43</v>
       </c>
       <c r="B198" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C198" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -4665,13 +4647,13 @@
         <v>345</v>
       </c>
       <c r="B199" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C199" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -4679,13 +4661,13 @@
         <v>781</v>
       </c>
       <c r="B200" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C200" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D200" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -4693,13 +4675,13 @@
         <v>551</v>
       </c>
       <c r="B201" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C201" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D201" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -4707,13 +4689,13 @@
         <v>330</v>
       </c>
       <c r="B202" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C202" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D202" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -4721,13 +4703,13 @@
         <v>591</v>
       </c>
       <c r="B203" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C203" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D203" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -4735,10 +4717,10 @@
         <v>572</v>
       </c>
       <c r="C204" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D204" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -4746,13 +4728,13 @@
         <v>856</v>
       </c>
       <c r="B205" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C205" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D205" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -4760,13 +4742,13 @@
         <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C206" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D206" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -4774,13 +4756,13 @@
         <v>1002</v>
       </c>
       <c r="B207" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C207" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D207" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -4788,10 +4770,10 @@
         <v>910</v>
       </c>
       <c r="C208" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D208" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -4799,13 +4781,13 @@
         <v>629</v>
       </c>
       <c r="B209" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C209" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -4813,13 +4795,13 @@
         <v>80</v>
       </c>
       <c r="B210" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C210" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -4827,13 +4809,13 @@
         <v>908</v>
       </c>
       <c r="B211" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C211" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D211" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -4841,13 +4823,13 @@
         <v>273</v>
       </c>
       <c r="B212" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C212" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D212" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -4855,13 +4837,13 @@
         <v>945</v>
       </c>
       <c r="B213" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C213" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D213" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -4869,10 +4851,10 @@
         <v>30</v>
       </c>
       <c r="C214" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D214" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -4880,13 +4862,13 @@
         <v>5</v>
       </c>
       <c r="B215" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C215" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D215" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -4894,13 +4876,13 @@
         <v>207</v>
       </c>
       <c r="B216" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C216" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D216" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -4908,13 +4890,13 @@
         <v>412</v>
       </c>
       <c r="B217" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C217" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D217" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -4922,13 +4904,13 @@
         <v>805</v>
       </c>
       <c r="B218" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C218" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D218" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -4936,13 +4918,13 @@
         <v>351</v>
       </c>
       <c r="B219" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C219" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D219" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -4950,13 +4932,13 @@
         <v>51</v>
       </c>
       <c r="B220" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C220" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D220" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -4964,13 +4946,13 @@
         <v>421</v>
       </c>
       <c r="B221" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C221" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D221" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -4978,13 +4960,13 @@
         <v>97</v>
       </c>
       <c r="B222" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C222" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D222" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -4992,13 +4974,13 @@
         <v>63</v>
       </c>
       <c r="B223" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C223" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D223" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -5006,13 +4988,13 @@
         <v>472</v>
       </c>
       <c r="B224" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C224" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D224" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -5020,13 +5002,13 @@
         <v>998</v>
       </c>
       <c r="B225" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C225" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D225" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -5034,13 +5016,13 @@
         <v>250</v>
       </c>
       <c r="B226" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C226" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D226" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -5048,13 +5030,13 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C227" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D227" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -5062,13 +5044,13 @@
         <v>235</v>
       </c>
       <c r="B228" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C228" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D228" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -5076,13 +5058,13 @@
         <v>502</v>
       </c>
       <c r="B229" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C229" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D229" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -5090,13 +5072,13 @@
         <v>724</v>
       </c>
       <c r="B230" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C230" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D230" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -5104,13 +5086,13 @@
         <v>711</v>
       </c>
       <c r="B231" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C231" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D231" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -5118,13 +5100,13 @@
         <v>420</v>
       </c>
       <c r="B232" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C232" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D232" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -5132,13 +5114,13 @@
         <v>143</v>
       </c>
       <c r="B233" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C233" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D233" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -5146,13 +5128,13 @@
         <v>749</v>
       </c>
       <c r="B234" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C234" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D234" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -5160,13 +5142,13 @@
         <v>768</v>
       </c>
       <c r="B235" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C235" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D235" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -5174,13 +5156,13 @@
         <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C236" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D236" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -5188,13 +5170,13 @@
         <v>535</v>
       </c>
       <c r="B237" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C237" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D237" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -5202,13 +5184,13 @@
         <v>745</v>
       </c>
       <c r="B238" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C238" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D238" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -5216,13 +5198,13 @@
         <v>95</v>
       </c>
       <c r="B239" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C239" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D239" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -5230,13 +5212,13 @@
         <v>746</v>
       </c>
       <c r="B240" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C240" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D240" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -5244,13 +5226,13 @@
         <v>231</v>
       </c>
       <c r="B241" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C241" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D241" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -5258,13 +5240,13 @@
         <v>617</v>
       </c>
       <c r="B242" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C242" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D242" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -5272,13 +5254,13 @@
         <v>517</v>
       </c>
       <c r="B243" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C243" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D243" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -5286,13 +5268,13 @@
         <v>849</v>
       </c>
       <c r="B244" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C244" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D244" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -5300,13 +5282,13 @@
         <v>896</v>
       </c>
       <c r="B245" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C245" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D245" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -5314,13 +5296,13 @@
         <v>874</v>
       </c>
       <c r="B246" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C246" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D246" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -5328,13 +5310,13 @@
         <v>902</v>
       </c>
       <c r="B247" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C247" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D247" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -5342,13 +5324,13 @@
         <v>744</v>
       </c>
       <c r="B248" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C248" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D248" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -5356,13 +5338,13 @@
         <v>623</v>
       </c>
       <c r="B249" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C249" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D249" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/evaluation_data.xlsx
+++ b/data/evaluation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaychan/GitHub/gammon_nlp_project_demo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019C4D9-363E-F745-AB59-8CE7DA13E4E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A0070-1F0C-404F-86FF-195F5CCE4FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="504">
   <si>
     <t>S/N</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>Improper fatal zone management and lifting supervisor not present while hoisting works</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fatal zone</t>
   </si>
   <si>
     <t>Instructed worker to wear face mask. Make sure wear the mask at all times except eating or drinking.</t>
@@ -1906,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2421,7 +2418,7 @@
         <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2429,10 +2426,10 @@
         <v>624</v>
       </c>
       <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2443,10 +2440,10 @@
         <v>637</v>
       </c>
       <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -2457,10 +2454,10 @@
         <v>328</v>
       </c>
       <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -2471,7 +2468,7 @@
         <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
@@ -2482,13 +2479,13 @@
         <v>526</v>
       </c>
       <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
         <v>96</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>97</v>
-      </c>
-      <c r="D42" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2496,10 +2493,10 @@
         <v>399</v>
       </c>
       <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
       </c>
       <c r="D43" t="s">
         <v>43</v>
@@ -2510,13 +2507,13 @@
         <v>672</v>
       </c>
       <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>102</v>
-      </c>
-      <c r="D44" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2524,10 +2521,10 @@
         <v>989</v>
       </c>
       <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
         <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>105</v>
       </c>
       <c r="D45" t="s">
         <v>69</v>
@@ -2538,10 +2535,10 @@
         <v>835</v>
       </c>
       <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
       </c>
       <c r="D46" t="s">
         <v>43</v>
@@ -2552,10 +2549,10 @@
         <v>216</v>
       </c>
       <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
         <v>108</v>
-      </c>
-      <c r="C47" t="s">
-        <v>109</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
@@ -2566,10 +2563,10 @@
         <v>969</v>
       </c>
       <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
         <v>110</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
       </c>
       <c r="D48" t="s">
         <v>76</v>
@@ -2580,10 +2577,10 @@
         <v>696</v>
       </c>
       <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>113</v>
       </c>
       <c r="D49" t="s">
         <v>37</v>
@@ -2594,13 +2591,13 @@
         <v>489</v>
       </c>
       <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
         <v>114</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>115</v>
-      </c>
-      <c r="D50" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2608,10 +2605,10 @@
         <v>161</v>
       </c>
       <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
         <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -2622,10 +2619,10 @@
         <v>374</v>
       </c>
       <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
         <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2636,10 +2633,10 @@
         <v>411</v>
       </c>
       <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
         <v>121</v>
-      </c>
-      <c r="C53" t="s">
-        <v>122</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -2650,10 +2647,10 @@
         <v>419</v>
       </c>
       <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" t="s">
-        <v>124</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2664,10 +2661,10 @@
         <v>305</v>
       </c>
       <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
         <v>125</v>
-      </c>
-      <c r="C55" t="s">
-        <v>126</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -2678,13 +2675,13 @@
         <v>471</v>
       </c>
       <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
         <v>127</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>128</v>
-      </c>
-      <c r="D56" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2692,7 +2689,7 @@
         <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -2703,13 +2700,13 @@
         <v>170</v>
       </c>
       <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
         <v>131</v>
       </c>
-      <c r="C58" t="s">
-        <v>132</v>
-      </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2717,13 +2714,13 @@
         <v>384</v>
       </c>
       <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
         <v>133</v>
       </c>
-      <c r="C59" t="s">
-        <v>134</v>
-      </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2731,7 +2728,7 @@
         <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
         <v>69</v>
@@ -2742,10 +2739,10 @@
         <v>386</v>
       </c>
       <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
         <v>136</v>
-      </c>
-      <c r="C61" t="s">
-        <v>137</v>
       </c>
       <c r="D61" t="s">
         <v>16</v>
@@ -2756,13 +2753,13 @@
         <v>901</v>
       </c>
       <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
         <v>138</v>
       </c>
-      <c r="C62" t="s">
-        <v>139</v>
-      </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2770,10 +2767,10 @@
         <v>359</v>
       </c>
       <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
         <v>140</v>
-      </c>
-      <c r="C63" t="s">
-        <v>141</v>
       </c>
       <c r="D63" t="s">
         <v>43</v>
@@ -2784,10 +2781,10 @@
         <v>693</v>
       </c>
       <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
         <v>142</v>
-      </c>
-      <c r="C64" t="s">
-        <v>143</v>
       </c>
       <c r="D64" t="s">
         <v>69</v>
@@ -2798,10 +2795,10 @@
         <v>31</v>
       </c>
       <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
         <v>144</v>
-      </c>
-      <c r="D65" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2809,13 +2806,13 @@
         <v>676</v>
       </c>
       <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
         <v>146</v>
       </c>
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2823,10 +2820,10 @@
         <v>18</v>
       </c>
       <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
         <v>148</v>
-      </c>
-      <c r="C67" t="s">
-        <v>149</v>
       </c>
       <c r="D67" t="s">
         <v>22</v>
@@ -2837,10 +2834,10 @@
         <v>588</v>
       </c>
       <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
         <v>150</v>
-      </c>
-      <c r="C68" t="s">
-        <v>151</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -2851,10 +2848,10 @@
         <v>52</v>
       </c>
       <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
         <v>152</v>
-      </c>
-      <c r="C69" t="s">
-        <v>153</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
@@ -2865,10 +2862,10 @@
         <v>883</v>
       </c>
       <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
         <v>154</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
       </c>
       <c r="D70" t="s">
         <v>69</v>
@@ -2879,7 +2876,7 @@
         <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
         <v>69</v>
@@ -2890,10 +2887,10 @@
         <v>881</v>
       </c>
       <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
         <v>157</v>
-      </c>
-      <c r="C72" t="s">
-        <v>158</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
@@ -2904,10 +2901,10 @@
         <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2915,13 +2912,13 @@
         <v>731</v>
       </c>
       <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
         <v>160</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>161</v>
-      </c>
-      <c r="D74" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2929,10 +2926,10 @@
         <v>66</v>
       </c>
       <c r="B75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" t="s">
         <v>163</v>
-      </c>
-      <c r="C75" t="s">
-        <v>164</v>
       </c>
       <c r="D75" t="s">
         <v>22</v>
@@ -2943,13 +2940,13 @@
         <v>1003</v>
       </c>
       <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
         <v>165</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>166</v>
-      </c>
-      <c r="D76" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2957,10 +2954,10 @@
         <v>222</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
         <v>69</v>
@@ -2971,13 +2968,13 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
         <v>169</v>
       </c>
-      <c r="C78" t="s">
-        <v>170</v>
-      </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2985,13 +2982,13 @@
         <v>924</v>
       </c>
       <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
         <v>171</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>172</v>
-      </c>
-      <c r="D79" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2999,13 +2996,13 @@
         <v>956</v>
       </c>
       <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" t="s">
         <v>174</v>
       </c>
-      <c r="C80" t="s">
-        <v>175</v>
-      </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3013,10 +3010,10 @@
         <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
         <v>69</v>
@@ -3027,10 +3024,10 @@
         <v>256</v>
       </c>
       <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" t="s">
-        <v>178</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -3041,10 +3038,10 @@
         <v>262</v>
       </c>
       <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
         <v>179</v>
-      </c>
-      <c r="C83" t="s">
-        <v>180</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
@@ -3055,10 +3052,10 @@
         <v>414</v>
       </c>
       <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" t="s">
-        <v>182</v>
       </c>
       <c r="D84" t="s">
         <v>22</v>
@@ -3069,13 +3066,13 @@
         <v>186</v>
       </c>
       <c r="B85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" t="s">
         <v>183</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>184</v>
-      </c>
-      <c r="D85" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3083,10 +3080,10 @@
         <v>765</v>
       </c>
       <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
         <v>186</v>
-      </c>
-      <c r="C86" t="s">
-        <v>187</v>
       </c>
       <c r="D86" t="s">
         <v>69</v>
@@ -3097,10 +3094,10 @@
         <v>825</v>
       </c>
       <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" t="s">
         <v>188</v>
-      </c>
-      <c r="C87" t="s">
-        <v>189</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -3111,10 +3108,10 @@
         <v>585</v>
       </c>
       <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" t="s">
         <v>190</v>
-      </c>
-      <c r="C88" t="s">
-        <v>191</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -3125,10 +3122,10 @@
         <v>252</v>
       </c>
       <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="s">
         <v>192</v>
-      </c>
-      <c r="C89" t="s">
-        <v>193</v>
       </c>
       <c r="D89" t="s">
         <v>48</v>
@@ -3139,10 +3136,10 @@
         <v>136</v>
       </c>
       <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" t="s">
         <v>194</v>
-      </c>
-      <c r="C90" t="s">
-        <v>195</v>
       </c>
       <c r="D90" t="s">
         <v>48</v>
@@ -3153,10 +3150,10 @@
         <v>533</v>
       </c>
       <c r="B91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" t="s">
         <v>196</v>
-      </c>
-      <c r="C91" t="s">
-        <v>197</v>
       </c>
       <c r="D91" t="s">
         <v>48</v>
@@ -3167,10 +3164,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
-      </c>
-      <c r="C92" t="s">
-        <v>199</v>
       </c>
       <c r="D92" t="s">
         <v>37</v>
@@ -3181,13 +3178,13 @@
         <v>968</v>
       </c>
       <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
         <v>200</v>
       </c>
-      <c r="C93" t="s">
-        <v>201</v>
-      </c>
       <c r="D93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3195,10 +3192,10 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" t="s">
         <v>202</v>
-      </c>
-      <c r="C94" t="s">
-        <v>203</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -3209,10 +3206,10 @@
         <v>830</v>
       </c>
       <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" t="s">
         <v>204</v>
-      </c>
-      <c r="C95" t="s">
-        <v>205</v>
       </c>
       <c r="D95" t="s">
         <v>76</v>
@@ -3223,10 +3220,10 @@
         <v>124</v>
       </c>
       <c r="B96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" t="s">
         <v>206</v>
-      </c>
-      <c r="C96" t="s">
-        <v>207</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -3237,13 +3234,13 @@
         <v>314</v>
       </c>
       <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
         <v>208</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>209</v>
-      </c>
-      <c r="D97" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3251,10 +3248,10 @@
         <v>342</v>
       </c>
       <c r="B98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" t="s">
         <v>211</v>
-      </c>
-      <c r="C98" t="s">
-        <v>212</v>
       </c>
       <c r="D98" t="s">
         <v>48</v>
@@ -3265,10 +3262,10 @@
         <v>306</v>
       </c>
       <c r="B99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" t="s">
         <v>213</v>
-      </c>
-      <c r="C99" t="s">
-        <v>214</v>
       </c>
       <c r="D99" t="s">
         <v>43</v>
@@ -3279,10 +3276,10 @@
         <v>720</v>
       </c>
       <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
         <v>215</v>
-      </c>
-      <c r="C100" t="s">
-        <v>216</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -3293,13 +3290,13 @@
         <v>566</v>
       </c>
       <c r="B101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" t="s">
         <v>217</v>
       </c>
-      <c r="C101" t="s">
-        <v>218</v>
-      </c>
       <c r="D101" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3307,13 +3304,13 @@
         <v>475</v>
       </c>
       <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
         <v>220</v>
       </c>
-      <c r="C102" t="s">
-        <v>221</v>
-      </c>
       <c r="D102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3321,10 +3318,10 @@
         <v>1004</v>
       </c>
       <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" t="s">
         <v>222</v>
-      </c>
-      <c r="C103" t="s">
-        <v>223</v>
       </c>
       <c r="D103" t="s">
         <v>76</v>
@@ -3335,10 +3332,10 @@
         <v>497</v>
       </c>
       <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" t="s">
         <v>224</v>
-      </c>
-      <c r="C104" t="s">
-        <v>225</v>
       </c>
       <c r="D104" t="s">
         <v>76</v>
@@ -3349,10 +3346,10 @@
         <v>1000</v>
       </c>
       <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" t="s">
         <v>226</v>
-      </c>
-      <c r="C105" t="s">
-        <v>227</v>
       </c>
       <c r="D105" t="s">
         <v>48</v>
@@ -3363,10 +3360,10 @@
         <v>919</v>
       </c>
       <c r="B106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" t="s">
         <v>228</v>
-      </c>
-      <c r="C106" t="s">
-        <v>229</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -3377,13 +3374,13 @@
         <v>914</v>
       </c>
       <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" t="s">
         <v>230</v>
       </c>
-      <c r="C107" t="s">
-        <v>231</v>
-      </c>
       <c r="D107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3391,10 +3388,10 @@
         <v>598</v>
       </c>
       <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" t="s">
         <v>232</v>
-      </c>
-      <c r="C108" t="s">
-        <v>233</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
@@ -3405,10 +3402,10 @@
         <v>174</v>
       </c>
       <c r="B109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" t="s">
         <v>234</v>
-      </c>
-      <c r="C109" t="s">
-        <v>235</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
@@ -3419,10 +3416,10 @@
         <v>490</v>
       </c>
       <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" t="s">
         <v>236</v>
-      </c>
-      <c r="C110" t="s">
-        <v>237</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
@@ -3433,10 +3430,10 @@
         <v>57</v>
       </c>
       <c r="C111" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" t="s">
         <v>238</v>
-      </c>
-      <c r="D111" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3444,7 +3441,7 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -3455,10 +3452,10 @@
         <v>229</v>
       </c>
       <c r="B113" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" t="s">
         <v>241</v>
-      </c>
-      <c r="C113" t="s">
-        <v>242</v>
       </c>
       <c r="D113" t="s">
         <v>48</v>
@@ -3469,10 +3466,10 @@
         <v>933</v>
       </c>
       <c r="B114" t="s">
+        <v>242</v>
+      </c>
+      <c r="C114" t="s">
         <v>243</v>
-      </c>
-      <c r="C114" t="s">
-        <v>244</v>
       </c>
       <c r="D114" t="s">
         <v>43</v>
@@ -3483,10 +3480,10 @@
         <v>316</v>
       </c>
       <c r="B115" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" t="s">
         <v>245</v>
-      </c>
-      <c r="C115" t="s">
-        <v>246</v>
       </c>
       <c r="D115" t="s">
         <v>48</v>
@@ -3497,10 +3494,10 @@
         <v>949</v>
       </c>
       <c r="B116" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" t="s">
         <v>247</v>
-      </c>
-      <c r="C116" t="s">
-        <v>248</v>
       </c>
       <c r="D116" t="s">
         <v>69</v>
@@ -3511,7 +3508,7 @@
         <v>182</v>
       </c>
       <c r="C117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
@@ -3522,10 +3519,10 @@
         <v>219</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D118" t="s">
         <v>69</v>
@@ -3536,7 +3533,7 @@
         <v>109</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D119" t="s">
         <v>69</v>
@@ -3547,10 +3544,10 @@
         <v>234</v>
       </c>
       <c r="B120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" t="s">
         <v>252</v>
-      </c>
-      <c r="C120" t="s">
-        <v>253</v>
       </c>
       <c r="D120" t="s">
         <v>48</v>
@@ -3561,13 +3558,13 @@
         <v>706</v>
       </c>
       <c r="B121" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" t="s">
         <v>254</v>
       </c>
-      <c r="C121" t="s">
-        <v>255</v>
-      </c>
       <c r="D121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3575,10 +3572,10 @@
         <v>912</v>
       </c>
       <c r="B122" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" t="s">
         <v>256</v>
-      </c>
-      <c r="C122" t="s">
-        <v>257</v>
       </c>
       <c r="D122" t="s">
         <v>48</v>
@@ -3589,10 +3586,10 @@
         <v>574</v>
       </c>
       <c r="B123" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" t="s">
         <v>258</v>
-      </c>
-      <c r="C123" t="s">
-        <v>259</v>
       </c>
       <c r="D123" t="s">
         <v>11</v>
@@ -3603,10 +3600,10 @@
         <v>202</v>
       </c>
       <c r="B124" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" t="s">
         <v>260</v>
-      </c>
-      <c r="C124" t="s">
-        <v>261</v>
       </c>
       <c r="D124" t="s">
         <v>43</v>
@@ -3617,10 +3614,10 @@
         <v>790</v>
       </c>
       <c r="B125" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" t="s">
         <v>262</v>
-      </c>
-      <c r="C125" t="s">
-        <v>263</v>
       </c>
       <c r="D125" t="s">
         <v>69</v>
@@ -3631,10 +3628,10 @@
         <v>362</v>
       </c>
       <c r="B126" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" t="s">
         <v>264</v>
-      </c>
-      <c r="C126" t="s">
-        <v>265</v>
       </c>
       <c r="D126" t="s">
         <v>69</v>
@@ -3645,13 +3642,13 @@
         <v>843</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C127" t="s">
         <v>45</v>
       </c>
       <c r="D127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3659,10 +3656,10 @@
         <v>727</v>
       </c>
       <c r="B128" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" t="s">
         <v>268</v>
-      </c>
-      <c r="C128" t="s">
-        <v>269</v>
       </c>
       <c r="D128" t="s">
         <v>43</v>
@@ -3673,10 +3670,10 @@
         <v>978</v>
       </c>
       <c r="B129" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" t="s">
         <v>270</v>
-      </c>
-      <c r="C129" t="s">
-        <v>271</v>
       </c>
       <c r="D129" t="s">
         <v>69</v>
@@ -3687,13 +3684,13 @@
         <v>483</v>
       </c>
       <c r="B130" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" t="s">
         <v>272</v>
       </c>
-      <c r="C130" t="s">
-        <v>273</v>
-      </c>
       <c r="D130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3701,10 +3698,10 @@
         <v>543</v>
       </c>
       <c r="B131" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" t="s">
         <v>274</v>
-      </c>
-      <c r="C131" t="s">
-        <v>275</v>
       </c>
       <c r="D131" t="s">
         <v>22</v>
@@ -3715,7 +3712,7 @@
         <v>682</v>
       </c>
       <c r="B132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C132" t="s">
         <v>45</v>
@@ -3729,13 +3726,13 @@
         <v>474</v>
       </c>
       <c r="B133" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" t="s">
         <v>277</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>278</v>
-      </c>
-      <c r="D133" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3743,10 +3740,10 @@
         <v>974</v>
       </c>
       <c r="B134" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" t="s">
         <v>280</v>
-      </c>
-      <c r="C134" t="s">
-        <v>281</v>
       </c>
       <c r="D134" t="s">
         <v>69</v>
@@ -3757,10 +3754,10 @@
         <v>347</v>
       </c>
       <c r="B135" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" t="s">
         <v>282</v>
-      </c>
-      <c r="C135" t="s">
-        <v>283</v>
       </c>
       <c r="D135" t="s">
         <v>22</v>
@@ -3771,10 +3768,10 @@
         <v>162</v>
       </c>
       <c r="B136" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136" t="s">
         <v>284</v>
-      </c>
-      <c r="C136" t="s">
-        <v>285</v>
       </c>
       <c r="D136" t="s">
         <v>69</v>
@@ -3785,10 +3782,10 @@
         <v>520</v>
       </c>
       <c r="B137" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" t="s">
         <v>286</v>
-      </c>
-      <c r="C137" t="s">
-        <v>287</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -3799,10 +3796,10 @@
         <v>654</v>
       </c>
       <c r="B138" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" t="s">
         <v>288</v>
-      </c>
-      <c r="C138" t="s">
-        <v>289</v>
       </c>
       <c r="D138" t="s">
         <v>43</v>
@@ -3813,10 +3810,10 @@
         <v>943</v>
       </c>
       <c r="B139" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" t="s">
         <v>290</v>
-      </c>
-      <c r="C139" t="s">
-        <v>291</v>
       </c>
       <c r="D139" t="s">
         <v>48</v>
@@ -3827,13 +3824,13 @@
         <v>70</v>
       </c>
       <c r="B140" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" t="s">
         <v>292</v>
       </c>
-      <c r="C140" t="s">
-        <v>293</v>
-      </c>
       <c r="D140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -3841,13 +3838,13 @@
         <v>845</v>
       </c>
       <c r="B141" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" t="s">
         <v>294</v>
       </c>
-      <c r="C141" t="s">
-        <v>295</v>
-      </c>
       <c r="D141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3855,10 +3852,10 @@
         <v>542</v>
       </c>
       <c r="B142" t="s">
+        <v>295</v>
+      </c>
+      <c r="C142" t="s">
         <v>296</v>
-      </c>
-      <c r="C142" t="s">
-        <v>297</v>
       </c>
       <c r="D142" t="s">
         <v>53</v>
@@ -3869,13 +3866,13 @@
         <v>990</v>
       </c>
       <c r="B143" t="s">
+        <v>297</v>
+      </c>
+      <c r="C143" t="s">
         <v>298</v>
       </c>
-      <c r="C143" t="s">
-        <v>299</v>
-      </c>
       <c r="D143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3883,10 +3880,10 @@
         <v>862</v>
       </c>
       <c r="B144" t="s">
+        <v>299</v>
+      </c>
+      <c r="C144" t="s">
         <v>300</v>
-      </c>
-      <c r="C144" t="s">
-        <v>301</v>
       </c>
       <c r="D144" t="s">
         <v>69</v>
@@ -3897,13 +3894,13 @@
         <v>631</v>
       </c>
       <c r="B145" t="s">
+        <v>301</v>
+      </c>
+      <c r="C145" t="s">
         <v>302</v>
       </c>
-      <c r="C145" t="s">
-        <v>303</v>
-      </c>
       <c r="D145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,10 +3908,10 @@
         <v>876</v>
       </c>
       <c r="B146" t="s">
+        <v>303</v>
+      </c>
+      <c r="C146" t="s">
         <v>304</v>
-      </c>
-      <c r="C146" t="s">
-        <v>305</v>
       </c>
       <c r="D146" t="s">
         <v>9</v>
@@ -3925,10 +3922,10 @@
         <v>79</v>
       </c>
       <c r="B147" t="s">
+        <v>305</v>
+      </c>
+      <c r="C147" t="s">
         <v>306</v>
-      </c>
-      <c r="C147" t="s">
-        <v>307</v>
       </c>
       <c r="D147" t="s">
         <v>22</v>
@@ -3939,13 +3936,13 @@
         <v>944</v>
       </c>
       <c r="B148" t="s">
+        <v>307</v>
+      </c>
+      <c r="C148" t="s">
         <v>308</v>
       </c>
-      <c r="C148" t="s">
-        <v>309</v>
-      </c>
       <c r="D148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,13 +3950,13 @@
         <v>986</v>
       </c>
       <c r="B149" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" t="s">
         <v>310</v>
       </c>
-      <c r="C149" t="s">
-        <v>311</v>
-      </c>
       <c r="D149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -3967,10 +3964,10 @@
         <v>541</v>
       </c>
       <c r="B150" t="s">
+        <v>311</v>
+      </c>
+      <c r="C150" t="s">
         <v>312</v>
-      </c>
-      <c r="C150" t="s">
-        <v>313</v>
       </c>
       <c r="D150" t="s">
         <v>76</v>
@@ -3981,10 +3978,10 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
+        <v>313</v>
+      </c>
+      <c r="C151" t="s">
         <v>314</v>
-      </c>
-      <c r="C151" t="s">
-        <v>315</v>
       </c>
       <c r="D151" t="s">
         <v>69</v>
@@ -3995,10 +3992,10 @@
         <v>296</v>
       </c>
       <c r="B152" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" t="s">
         <v>316</v>
-      </c>
-      <c r="C152" t="s">
-        <v>317</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
@@ -4009,10 +4006,10 @@
         <v>77</v>
       </c>
       <c r="B153" t="s">
+        <v>317</v>
+      </c>
+      <c r="C153" t="s">
         <v>318</v>
-      </c>
-      <c r="C153" t="s">
-        <v>319</v>
       </c>
       <c r="D153" t="s">
         <v>16</v>
@@ -4023,10 +4020,10 @@
         <v>820</v>
       </c>
       <c r="B154" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" t="s">
         <v>320</v>
-      </c>
-      <c r="C154" t="s">
-        <v>321</v>
       </c>
       <c r="D154" t="s">
         <v>22</v>
@@ -4037,10 +4034,10 @@
         <v>643</v>
       </c>
       <c r="B155" t="s">
+        <v>321</v>
+      </c>
+      <c r="C155" t="s">
         <v>322</v>
-      </c>
-      <c r="C155" t="s">
-        <v>323</v>
       </c>
       <c r="D155" t="s">
         <v>48</v>
@@ -4051,13 +4048,13 @@
         <v>930</v>
       </c>
       <c r="B156" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" t="s">
         <v>324</v>
       </c>
-      <c r="C156" t="s">
-        <v>325</v>
-      </c>
       <c r="D156" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4065,7 +4062,7 @@
         <v>458</v>
       </c>
       <c r="C157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D157" t="s">
         <v>13</v>
@@ -4076,13 +4073,13 @@
         <v>341</v>
       </c>
       <c r="B158" t="s">
+        <v>326</v>
+      </c>
+      <c r="C158" t="s">
         <v>327</v>
       </c>
-      <c r="C158" t="s">
-        <v>328</v>
-      </c>
       <c r="D158" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -4090,10 +4087,10 @@
         <v>976</v>
       </c>
       <c r="B159" t="s">
+        <v>328</v>
+      </c>
+      <c r="C159" t="s">
         <v>329</v>
-      </c>
-      <c r="C159" t="s">
-        <v>330</v>
       </c>
       <c r="D159" t="s">
         <v>69</v>
@@ -4104,10 +4101,10 @@
         <v>84</v>
       </c>
       <c r="B160" t="s">
+        <v>330</v>
+      </c>
+      <c r="C160" t="s">
         <v>331</v>
-      </c>
-      <c r="C160" t="s">
-        <v>332</v>
       </c>
       <c r="D160" t="s">
         <v>69</v>
@@ -4118,13 +4115,13 @@
         <v>580</v>
       </c>
       <c r="B161" t="s">
+        <v>332</v>
+      </c>
+      <c r="C161" t="s">
         <v>333</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>334</v>
-      </c>
-      <c r="D161" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4132,10 +4129,10 @@
         <v>213</v>
       </c>
       <c r="B162" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C162" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D162" t="s">
         <v>13</v>
@@ -4146,10 +4143,10 @@
         <v>455</v>
       </c>
       <c r="B163" t="s">
+        <v>336</v>
+      </c>
+      <c r="C163" t="s">
         <v>337</v>
-      </c>
-      <c r="C163" t="s">
-        <v>338</v>
       </c>
       <c r="D163" t="s">
         <v>16</v>
@@ -4160,10 +4157,10 @@
         <v>110</v>
       </c>
       <c r="B164" t="s">
+        <v>338</v>
+      </c>
+      <c r="C164" t="s">
         <v>339</v>
-      </c>
-      <c r="C164" t="s">
-        <v>340</v>
       </c>
       <c r="D164" t="s">
         <v>29</v>
@@ -4174,10 +4171,10 @@
         <v>685</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C165" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D165" t="s">
         <v>37</v>
@@ -4188,10 +4185,10 @@
         <v>867</v>
       </c>
       <c r="B166" t="s">
+        <v>341</v>
+      </c>
+      <c r="C166" t="s">
         <v>342</v>
-      </c>
-      <c r="C166" t="s">
-        <v>343</v>
       </c>
       <c r="D166" t="s">
         <v>22</v>
@@ -4202,10 +4199,10 @@
         <v>308</v>
       </c>
       <c r="B167" t="s">
+        <v>343</v>
+      </c>
+      <c r="C167" t="s">
         <v>344</v>
-      </c>
-      <c r="C167" t="s">
-        <v>345</v>
       </c>
       <c r="D167" t="s">
         <v>48</v>
@@ -4216,10 +4213,10 @@
         <v>391</v>
       </c>
       <c r="B168" t="s">
+        <v>345</v>
+      </c>
+      <c r="C168" t="s">
         <v>346</v>
-      </c>
-      <c r="C168" t="s">
-        <v>347</v>
       </c>
       <c r="D168" t="s">
         <v>43</v>
@@ -4230,13 +4227,13 @@
         <v>717</v>
       </c>
       <c r="B169" t="s">
+        <v>347</v>
+      </c>
+      <c r="C169" t="s">
         <v>348</v>
       </c>
-      <c r="C169" t="s">
-        <v>349</v>
-      </c>
       <c r="D169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -4244,13 +4241,13 @@
         <v>326</v>
       </c>
       <c r="B170" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" t="s">
         <v>350</v>
       </c>
-      <c r="C170" t="s">
-        <v>351</v>
-      </c>
       <c r="D170" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -4258,10 +4255,10 @@
         <v>888</v>
       </c>
       <c r="B171" t="s">
+        <v>351</v>
+      </c>
+      <c r="C171" t="s">
         <v>352</v>
-      </c>
-      <c r="C171" t="s">
-        <v>353</v>
       </c>
       <c r="D171" t="s">
         <v>22</v>
@@ -4272,13 +4269,13 @@
         <v>339</v>
       </c>
       <c r="B172" t="s">
+        <v>353</v>
+      </c>
+      <c r="C172" t="s">
         <v>354</v>
       </c>
-      <c r="C172" t="s">
-        <v>355</v>
-      </c>
       <c r="D172" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -4286,10 +4283,10 @@
         <v>35</v>
       </c>
       <c r="B173" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" t="s">
         <v>356</v>
-      </c>
-      <c r="C173" t="s">
-        <v>357</v>
       </c>
       <c r="D173" t="s">
         <v>22</v>
@@ -4300,10 +4297,10 @@
         <v>655</v>
       </c>
       <c r="B174" t="s">
+        <v>357</v>
+      </c>
+      <c r="C174" t="s">
         <v>358</v>
-      </c>
-      <c r="C174" t="s">
-        <v>359</v>
       </c>
       <c r="D174" t="s">
         <v>48</v>
@@ -4314,10 +4311,10 @@
         <v>98</v>
       </c>
       <c r="B175" t="s">
+        <v>359</v>
+      </c>
+      <c r="C175" t="s">
         <v>360</v>
-      </c>
-      <c r="C175" t="s">
-        <v>361</v>
       </c>
       <c r="D175" t="s">
         <v>43</v>
@@ -4328,10 +4325,10 @@
         <v>702</v>
       </c>
       <c r="B176" t="s">
+        <v>361</v>
+      </c>
+      <c r="C176" t="s">
         <v>362</v>
-      </c>
-      <c r="C176" t="s">
-        <v>363</v>
       </c>
       <c r="D176" t="s">
         <v>48</v>
@@ -4342,10 +4339,10 @@
         <v>931</v>
       </c>
       <c r="B177" t="s">
+        <v>363</v>
+      </c>
+      <c r="C177" t="s">
         <v>364</v>
-      </c>
-      <c r="C177" t="s">
-        <v>365</v>
       </c>
       <c r="D177" t="s">
         <v>69</v>
@@ -4356,10 +4353,10 @@
         <v>454</v>
       </c>
       <c r="B178" t="s">
+        <v>365</v>
+      </c>
+      <c r="C178" t="s">
         <v>366</v>
-      </c>
-      <c r="C178" t="s">
-        <v>367</v>
       </c>
       <c r="D178" t="s">
         <v>69</v>
@@ -4370,10 +4367,10 @@
         <v>878</v>
       </c>
       <c r="B179" t="s">
+        <v>367</v>
+      </c>
+      <c r="C179" t="s">
         <v>368</v>
-      </c>
-      <c r="C179" t="s">
-        <v>369</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
@@ -4384,10 +4381,10 @@
         <v>982</v>
       </c>
       <c r="B180" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" t="s">
         <v>370</v>
-      </c>
-      <c r="C180" t="s">
-        <v>371</v>
       </c>
       <c r="D180" t="s">
         <v>69</v>
@@ -4398,10 +4395,10 @@
         <v>448</v>
       </c>
       <c r="B181" t="s">
+        <v>371</v>
+      </c>
+      <c r="C181" t="s">
         <v>372</v>
-      </c>
-      <c r="C181" t="s">
-        <v>373</v>
       </c>
       <c r="D181" t="s">
         <v>69</v>
@@ -4412,13 +4409,13 @@
         <v>633</v>
       </c>
       <c r="B182" t="s">
+        <v>373</v>
+      </c>
+      <c r="C182" t="s">
         <v>374</v>
       </c>
-      <c r="C182" t="s">
-        <v>375</v>
-      </c>
       <c r="D182" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -4426,10 +4423,10 @@
         <v>90</v>
       </c>
       <c r="B183" t="s">
+        <v>375</v>
+      </c>
+      <c r="C183" t="s">
         <v>376</v>
-      </c>
-      <c r="C183" t="s">
-        <v>377</v>
       </c>
       <c r="D183" t="s">
         <v>69</v>
@@ -4440,10 +4437,10 @@
         <v>704</v>
       </c>
       <c r="B184" t="s">
+        <v>377</v>
+      </c>
+      <c r="C184" t="s">
         <v>378</v>
-      </c>
-      <c r="C184" t="s">
-        <v>379</v>
       </c>
       <c r="D184" t="s">
         <v>48</v>
@@ -4454,10 +4451,10 @@
         <v>3</v>
       </c>
       <c r="B185" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185" t="s">
         <v>380</v>
-      </c>
-      <c r="C185" t="s">
-        <v>381</v>
       </c>
       <c r="D185" t="s">
         <v>16</v>
@@ -4468,13 +4465,13 @@
         <v>664</v>
       </c>
       <c r="B186" t="s">
+        <v>381</v>
+      </c>
+      <c r="C186" t="s">
         <v>382</v>
       </c>
-      <c r="C186" t="s">
-        <v>383</v>
-      </c>
       <c r="D186" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -4482,10 +4479,10 @@
         <v>447</v>
       </c>
       <c r="B187" t="s">
+        <v>383</v>
+      </c>
+      <c r="C187" t="s">
         <v>384</v>
-      </c>
-      <c r="C187" t="s">
-        <v>385</v>
       </c>
       <c r="D187" t="s">
         <v>69</v>
@@ -4496,10 +4493,10 @@
         <v>353</v>
       </c>
       <c r="B188" t="s">
+        <v>385</v>
+      </c>
+      <c r="C188" t="s">
         <v>386</v>
-      </c>
-      <c r="C188" t="s">
-        <v>387</v>
       </c>
       <c r="D188" t="s">
         <v>69</v>
@@ -4510,10 +4507,10 @@
         <v>433</v>
       </c>
       <c r="B189" t="s">
+        <v>387</v>
+      </c>
+      <c r="C189" t="s">
         <v>388</v>
-      </c>
-      <c r="C189" t="s">
-        <v>389</v>
       </c>
       <c r="D189" t="s">
         <v>22</v>
@@ -4524,7 +4521,7 @@
         <v>86</v>
       </c>
       <c r="C190" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D190" t="s">
         <v>69</v>
@@ -4535,13 +4532,13 @@
         <v>725</v>
       </c>
       <c r="B191" t="s">
+        <v>390</v>
+      </c>
+      <c r="C191" t="s">
         <v>391</v>
       </c>
-      <c r="C191" t="s">
-        <v>392</v>
-      </c>
       <c r="D191" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,13 +4546,13 @@
         <v>137</v>
       </c>
       <c r="B192" t="s">
+        <v>392</v>
+      </c>
+      <c r="C192" t="s">
         <v>393</v>
       </c>
-      <c r="C192" t="s">
-        <v>394</v>
-      </c>
       <c r="D192" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,10 +4560,10 @@
         <v>772</v>
       </c>
       <c r="B193" t="s">
+        <v>394</v>
+      </c>
+      <c r="C193" t="s">
         <v>395</v>
-      </c>
-      <c r="C193" t="s">
-        <v>396</v>
       </c>
       <c r="D193" t="s">
         <v>69</v>
@@ -4577,13 +4574,13 @@
         <v>680</v>
       </c>
       <c r="B194" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C194" t="s">
         <v>45</v>
       </c>
       <c r="D194" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -4591,13 +4588,13 @@
         <v>898</v>
       </c>
       <c r="B195" t="s">
+        <v>397</v>
+      </c>
+      <c r="C195" t="s">
         <v>398</v>
       </c>
-      <c r="C195" t="s">
-        <v>399</v>
-      </c>
       <c r="D195" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -4605,10 +4602,10 @@
         <v>838</v>
       </c>
       <c r="B196" t="s">
+        <v>399</v>
+      </c>
+      <c r="C196" t="s">
         <v>400</v>
-      </c>
-      <c r="C196" t="s">
-        <v>401</v>
       </c>
       <c r="D196" t="s">
         <v>69</v>
@@ -4619,10 +4616,10 @@
         <v>163</v>
       </c>
       <c r="B197" t="s">
+        <v>401</v>
+      </c>
+      <c r="C197" t="s">
         <v>402</v>
-      </c>
-      <c r="C197" t="s">
-        <v>403</v>
       </c>
       <c r="D197" t="s">
         <v>22</v>
@@ -4633,10 +4630,10 @@
         <v>43</v>
       </c>
       <c r="B198" t="s">
+        <v>403</v>
+      </c>
+      <c r="C198" t="s">
         <v>404</v>
-      </c>
-      <c r="C198" t="s">
-        <v>405</v>
       </c>
       <c r="D198" t="s">
         <v>6</v>
@@ -4647,10 +4644,10 @@
         <v>345</v>
       </c>
       <c r="B199" t="s">
+        <v>405</v>
+      </c>
+      <c r="C199" t="s">
         <v>406</v>
-      </c>
-      <c r="C199" t="s">
-        <v>407</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
@@ -4661,13 +4658,13 @@
         <v>781</v>
       </c>
       <c r="B200" t="s">
+        <v>407</v>
+      </c>
+      <c r="C200" t="s">
         <v>408</v>
       </c>
-      <c r="C200" t="s">
-        <v>409</v>
-      </c>
       <c r="D200" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -4675,10 +4672,10 @@
         <v>551</v>
       </c>
       <c r="B201" t="s">
+        <v>409</v>
+      </c>
+      <c r="C201" t="s">
         <v>410</v>
-      </c>
-      <c r="C201" t="s">
-        <v>411</v>
       </c>
       <c r="D201" t="s">
         <v>69</v>
@@ -4689,10 +4686,10 @@
         <v>330</v>
       </c>
       <c r="B202" t="s">
+        <v>411</v>
+      </c>
+      <c r="C202" t="s">
         <v>412</v>
-      </c>
-      <c r="C202" t="s">
-        <v>413</v>
       </c>
       <c r="D202" t="s">
         <v>48</v>
@@ -4703,13 +4700,13 @@
         <v>591</v>
       </c>
       <c r="B203" t="s">
+        <v>413</v>
+      </c>
+      <c r="C203" t="s">
         <v>414</v>
       </c>
-      <c r="C203" t="s">
-        <v>415</v>
-      </c>
       <c r="D203" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,10 +4714,10 @@
         <v>572</v>
       </c>
       <c r="C204" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D204" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -4728,13 +4725,13 @@
         <v>856</v>
       </c>
       <c r="B205" t="s">
+        <v>416</v>
+      </c>
+      <c r="C205" t="s">
         <v>417</v>
       </c>
-      <c r="C205" t="s">
-        <v>418</v>
-      </c>
       <c r="D205" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -4742,13 +4739,13 @@
         <v>201</v>
       </c>
       <c r="B206" t="s">
+        <v>418</v>
+      </c>
+      <c r="C206" t="s">
         <v>419</v>
       </c>
-      <c r="C206" t="s">
-        <v>420</v>
-      </c>
       <c r="D206" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -4756,13 +4753,13 @@
         <v>1002</v>
       </c>
       <c r="B207" t="s">
+        <v>420</v>
+      </c>
+      <c r="C207" t="s">
         <v>421</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>422</v>
-      </c>
-      <c r="D207" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -4770,7 +4767,7 @@
         <v>910</v>
       </c>
       <c r="C208" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D208" t="s">
         <v>69</v>
@@ -4781,10 +4778,10 @@
         <v>629</v>
       </c>
       <c r="B209" t="s">
+        <v>424</v>
+      </c>
+      <c r="C209" t="s">
         <v>425</v>
-      </c>
-      <c r="C209" t="s">
-        <v>426</v>
       </c>
       <c r="D209" t="s">
         <v>24</v>
@@ -4795,10 +4792,10 @@
         <v>80</v>
       </c>
       <c r="B210" t="s">
+        <v>426</v>
+      </c>
+      <c r="C210" t="s">
         <v>427</v>
-      </c>
-      <c r="C210" t="s">
-        <v>428</v>
       </c>
       <c r="D210" t="s">
         <v>6</v>
@@ -4809,10 +4806,10 @@
         <v>908</v>
       </c>
       <c r="B211" t="s">
+        <v>428</v>
+      </c>
+      <c r="C211" t="s">
         <v>429</v>
-      </c>
-      <c r="C211" t="s">
-        <v>430</v>
       </c>
       <c r="D211" t="s">
         <v>48</v>
@@ -4823,10 +4820,10 @@
         <v>273</v>
       </c>
       <c r="B212" t="s">
+        <v>430</v>
+      </c>
+      <c r="C212" t="s">
         <v>431</v>
-      </c>
-      <c r="C212" t="s">
-        <v>432</v>
       </c>
       <c r="D212" t="s">
         <v>43</v>
@@ -4837,10 +4834,10 @@
         <v>945</v>
       </c>
       <c r="B213" t="s">
+        <v>432</v>
+      </c>
+      <c r="C213" t="s">
         <v>433</v>
-      </c>
-      <c r="C213" t="s">
-        <v>434</v>
       </c>
       <c r="D213" t="s">
         <v>29</v>
@@ -4851,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="C214" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D214" t="s">
         <v>24</v>
@@ -4862,10 +4859,10 @@
         <v>5</v>
       </c>
       <c r="B215" t="s">
+        <v>435</v>
+      </c>
+      <c r="C215" t="s">
         <v>436</v>
-      </c>
-      <c r="C215" t="s">
-        <v>437</v>
       </c>
       <c r="D215" t="s">
         <v>43</v>
@@ -4876,10 +4873,10 @@
         <v>207</v>
       </c>
       <c r="B216" t="s">
+        <v>437</v>
+      </c>
+      <c r="C216" t="s">
         <v>438</v>
-      </c>
-      <c r="C216" t="s">
-        <v>439</v>
       </c>
       <c r="D216" t="s">
         <v>22</v>
@@ -4890,10 +4887,10 @@
         <v>412</v>
       </c>
       <c r="B217" t="s">
+        <v>439</v>
+      </c>
+      <c r="C217" t="s">
         <v>440</v>
-      </c>
-      <c r="C217" t="s">
-        <v>441</v>
       </c>
       <c r="D217" t="s">
         <v>43</v>
@@ -4904,10 +4901,10 @@
         <v>805</v>
       </c>
       <c r="B218" t="s">
+        <v>441</v>
+      </c>
+      <c r="C218" t="s">
         <v>442</v>
-      </c>
-      <c r="C218" t="s">
-        <v>443</v>
       </c>
       <c r="D218" t="s">
         <v>37</v>
@@ -4918,10 +4915,10 @@
         <v>351</v>
       </c>
       <c r="B219" t="s">
+        <v>443</v>
+      </c>
+      <c r="C219" t="s">
         <v>444</v>
-      </c>
-      <c r="C219" t="s">
-        <v>445</v>
       </c>
       <c r="D219" t="s">
         <v>69</v>
@@ -4932,10 +4929,10 @@
         <v>51</v>
       </c>
       <c r="B220" t="s">
+        <v>445</v>
+      </c>
+      <c r="C220" t="s">
         <v>446</v>
-      </c>
-      <c r="C220" t="s">
-        <v>447</v>
       </c>
       <c r="D220" t="s">
         <v>48</v>
@@ -4946,10 +4943,10 @@
         <v>421</v>
       </c>
       <c r="B221" t="s">
+        <v>447</v>
+      </c>
+      <c r="C221" t="s">
         <v>448</v>
-      </c>
-      <c r="C221" t="s">
-        <v>449</v>
       </c>
       <c r="D221" t="s">
         <v>16</v>
@@ -4960,10 +4957,10 @@
         <v>97</v>
       </c>
       <c r="B222" t="s">
+        <v>449</v>
+      </c>
+      <c r="C222" t="s">
         <v>450</v>
-      </c>
-      <c r="C222" t="s">
-        <v>451</v>
       </c>
       <c r="D222" t="s">
         <v>48</v>
@@ -4974,10 +4971,10 @@
         <v>63</v>
       </c>
       <c r="B223" t="s">
+        <v>451</v>
+      </c>
+      <c r="C223" t="s">
         <v>452</v>
-      </c>
-      <c r="C223" t="s">
-        <v>453</v>
       </c>
       <c r="D223" t="s">
         <v>16</v>
@@ -4988,13 +4985,13 @@
         <v>472</v>
       </c>
       <c r="B224" t="s">
+        <v>453</v>
+      </c>
+      <c r="C224" t="s">
         <v>454</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>455</v>
-      </c>
-      <c r="D224" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -5002,10 +4999,10 @@
         <v>998</v>
       </c>
       <c r="B225" t="s">
+        <v>456</v>
+      </c>
+      <c r="C225" t="s">
         <v>457</v>
-      </c>
-      <c r="C225" t="s">
-        <v>458</v>
       </c>
       <c r="D225" t="s">
         <v>48</v>
@@ -5016,10 +5013,10 @@
         <v>250</v>
       </c>
       <c r="B226" t="s">
+        <v>458</v>
+      </c>
+      <c r="C226" t="s">
         <v>459</v>
-      </c>
-      <c r="C226" t="s">
-        <v>460</v>
       </c>
       <c r="D226" t="s">
         <v>69</v>
@@ -5030,10 +5027,10 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
+        <v>460</v>
+      </c>
+      <c r="C227" t="s">
         <v>461</v>
-      </c>
-      <c r="C227" t="s">
-        <v>462</v>
       </c>
       <c r="D227" t="s">
         <v>37</v>
@@ -5044,10 +5041,10 @@
         <v>235</v>
       </c>
       <c r="B228" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C228" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D228" t="s">
         <v>48</v>
@@ -5058,10 +5055,10 @@
         <v>502</v>
       </c>
       <c r="B229" t="s">
+        <v>463</v>
+      </c>
+      <c r="C229" t="s">
         <v>464</v>
-      </c>
-      <c r="C229" t="s">
-        <v>465</v>
       </c>
       <c r="D229" t="s">
         <v>69</v>
@@ -5072,13 +5069,13 @@
         <v>724</v>
       </c>
       <c r="B230" t="s">
+        <v>465</v>
+      </c>
+      <c r="C230" t="s">
         <v>466</v>
       </c>
-      <c r="C230" t="s">
-        <v>467</v>
-      </c>
       <c r="D230" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -5086,10 +5083,10 @@
         <v>711</v>
       </c>
       <c r="B231" t="s">
+        <v>467</v>
+      </c>
+      <c r="C231" t="s">
         <v>468</v>
-      </c>
-      <c r="C231" t="s">
-        <v>469</v>
       </c>
       <c r="D231" t="s">
         <v>43</v>
@@ -5100,10 +5097,10 @@
         <v>420</v>
       </c>
       <c r="B232" t="s">
+        <v>469</v>
+      </c>
+      <c r="C232" t="s">
         <v>470</v>
-      </c>
-      <c r="C232" t="s">
-        <v>471</v>
       </c>
       <c r="D232" t="s">
         <v>16</v>
@@ -5114,10 +5111,10 @@
         <v>143</v>
       </c>
       <c r="B233" t="s">
+        <v>471</v>
+      </c>
+      <c r="C233" t="s">
         <v>472</v>
-      </c>
-      <c r="C233" t="s">
-        <v>473</v>
       </c>
       <c r="D233" t="s">
         <v>48</v>
@@ -5128,13 +5125,13 @@
         <v>749</v>
       </c>
       <c r="B234" t="s">
+        <v>473</v>
+      </c>
+      <c r="C234" t="s">
         <v>474</v>
       </c>
-      <c r="C234" t="s">
-        <v>475</v>
-      </c>
       <c r="D234" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -5142,10 +5139,10 @@
         <v>768</v>
       </c>
       <c r="B235" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C235" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D235" t="s">
         <v>69</v>
@@ -5156,10 +5153,10 @@
         <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C236" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D236" t="s">
         <v>29</v>
@@ -5170,13 +5167,13 @@
         <v>535</v>
       </c>
       <c r="B237" t="s">
+        <v>477</v>
+      </c>
+      <c r="C237" t="s">
         <v>478</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>479</v>
-      </c>
-      <c r="D237" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -5184,13 +5181,13 @@
         <v>745</v>
       </c>
       <c r="B238" t="s">
+        <v>480</v>
+      </c>
+      <c r="C238" t="s">
         <v>481</v>
       </c>
-      <c r="C238" t="s">
-        <v>482</v>
-      </c>
       <c r="D238" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -5198,10 +5195,10 @@
         <v>95</v>
       </c>
       <c r="B239" t="s">
+        <v>482</v>
+      </c>
+      <c r="C239" t="s">
         <v>483</v>
-      </c>
-      <c r="C239" t="s">
-        <v>484</v>
       </c>
       <c r="D239" t="s">
         <v>48</v>
@@ -5212,13 +5209,13 @@
         <v>746</v>
       </c>
       <c r="B240" t="s">
+        <v>484</v>
+      </c>
+      <c r="C240" t="s">
         <v>485</v>
       </c>
-      <c r="C240" t="s">
-        <v>486</v>
-      </c>
       <c r="D240" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -5226,10 +5223,10 @@
         <v>231</v>
       </c>
       <c r="B241" t="s">
+        <v>486</v>
+      </c>
+      <c r="C241" t="s">
         <v>487</v>
-      </c>
-      <c r="C241" t="s">
-        <v>488</v>
       </c>
       <c r="D241" t="s">
         <v>48</v>
@@ -5240,13 +5237,13 @@
         <v>617</v>
       </c>
       <c r="B242" t="s">
+        <v>488</v>
+      </c>
+      <c r="C242" t="s">
         <v>489</v>
       </c>
-      <c r="C242" t="s">
-        <v>490</v>
-      </c>
       <c r="D242" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -5254,10 +5251,10 @@
         <v>517</v>
       </c>
       <c r="B243" t="s">
+        <v>490</v>
+      </c>
+      <c r="C243" t="s">
         <v>491</v>
-      </c>
-      <c r="C243" t="s">
-        <v>492</v>
       </c>
       <c r="D243" t="s">
         <v>76</v>
@@ -5268,13 +5265,13 @@
         <v>849</v>
       </c>
       <c r="B244" t="s">
+        <v>492</v>
+      </c>
+      <c r="C244" t="s">
         <v>493</v>
       </c>
-      <c r="C244" t="s">
-        <v>494</v>
-      </c>
       <c r="D244" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -5282,10 +5279,10 @@
         <v>896</v>
       </c>
       <c r="B245" t="s">
+        <v>494</v>
+      </c>
+      <c r="C245" t="s">
         <v>495</v>
-      </c>
-      <c r="C245" t="s">
-        <v>496</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
@@ -5296,10 +5293,10 @@
         <v>874</v>
       </c>
       <c r="B246" t="s">
+        <v>496</v>
+      </c>
+      <c r="C246" t="s">
         <v>497</v>
-      </c>
-      <c r="C246" t="s">
-        <v>498</v>
       </c>
       <c r="D246" t="s">
         <v>69</v>
@@ -5310,10 +5307,10 @@
         <v>902</v>
       </c>
       <c r="B247" t="s">
+        <v>498</v>
+      </c>
+      <c r="C247" t="s">
         <v>499</v>
-      </c>
-      <c r="C247" t="s">
-        <v>500</v>
       </c>
       <c r="D247" t="s">
         <v>69</v>
@@ -5324,13 +5321,13 @@
         <v>744</v>
       </c>
       <c r="B248" t="s">
+        <v>500</v>
+      </c>
+      <c r="C248" t="s">
         <v>501</v>
       </c>
-      <c r="C248" t="s">
-        <v>502</v>
-      </c>
       <c r="D248" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -5338,10 +5335,10 @@
         <v>623</v>
       </c>
       <c r="B249" t="s">
+        <v>502</v>
+      </c>
+      <c r="C249" t="s">
         <v>503</v>
-      </c>
-      <c r="C249" t="s">
-        <v>504</v>
       </c>
       <c r="D249" t="s">
         <v>43</v>
